--- a/Software/Regiser Descriptions/Register Descriptions.xlsx
+++ b/Software/Regiser Descriptions/Register Descriptions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="32">
   <si>
     <t>IP</t>
   </si>
@@ -112,13 +112,16 @@
   </si>
   <si>
     <t>DIO[0] Register Description</t>
+  </si>
+  <si>
+    <t>Weld and CNC stop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -142,6 +145,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -255,8 +265,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -278,8 +306,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -301,8 +331,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -313,6 +348,7 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -323,6 +359,7 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,10 +689,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="AE27" sqref="AE27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1707,7 +1744,7 @@
         <v>28</v>
       </c>
       <c r="K24" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" s="10" t="s">
         <v>28</v>
@@ -1774,30 +1811,87 @@
       </c>
       <c r="AG24" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="15">
+        <v>1</v>
+      </c>
+      <c r="P25" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="R25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="V25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="W25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="X25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG25" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AC6:AF6"/>
@@ -1814,6 +1908,26 @@
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Software/Regiser Descriptions/Register Descriptions.xlsx
+++ b/Software/Regiser Descriptions/Register Descriptions.xlsx
@@ -161,7 +161,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -263,15 +263,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -309,7 +300,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -325,17 +316,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -692,7 +681,7 @@
   <dimension ref="A1:AH25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE27" sqref="AE27"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -810,10 +799,10 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="13"/>
       <c r="E4">
         <v>0</v>
       </c>
@@ -835,41 +824,41 @@
       <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
       <c r="O4" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="P4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12" t="s">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12" t="s">
+      <c r="W4" s="13"/>
+      <c r="X4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12" t="s">
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12" t="s">
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="13"/>
+      <c r="AC4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="12"/>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
+      <c r="AD4" s="13"/>
+      <c r="AE4" s="13"/>
+      <c r="AF4" s="13"/>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="2">
@@ -976,54 +965,54 @@
       </c>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="11">
-        <v>0</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11">
+      <c r="A6" s="12">
+        <v>0</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12">
         <v>1</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11">
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12">
         <v>6</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11">
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12">
         <v>8</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11">
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12">
         <v>2</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11">
-        <v>0</v>
-      </c>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11">
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12">
+        <v>0</v>
+      </c>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12">
         <v>2</v>
       </c>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
       <c r="AG6" t="s">
         <v>13</v>
       </c>
@@ -1134,68 +1123,68 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="11">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11">
-        <v>0</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11">
-        <v>0</v>
-      </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11">
+      <c r="A9" s="12">
+        <v>0</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
+        <v>0</v>
+      </c>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12">
         <v>8</v>
       </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="11">
-        <v>0</v>
-      </c>
-      <c r="V9" s="11"/>
-      <c r="W9" s="11"/>
-      <c r="X9" s="11"/>
-      <c r="Y9" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="11"/>
-      <c r="AA9" s="11"/>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11" t="s">
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="11"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
       <c r="AG9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="6">
@@ -1501,83 +1490,83 @@
       </c>
     </row>
     <row r="20" spans="1:33">
-      <c r="I20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11" t="s">
+      <c r="I20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
       <c r="AG20" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:33">
-      <c r="I21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11">
+      <c r="I21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12">
         <v>3</v>
       </c>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
       <c r="AG21" t="s">
         <v>25</v>
       </c>
@@ -1814,34 +1803,34 @@
       </c>
     </row>
     <row r="25" spans="1:33">
-      <c r="I25">
+      <c r="I25" s="7">
         <v>1</v>
       </c>
-      <c r="J25" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="13" t="s">
+      <c r="J25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="M25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" s="15">
+      <c r="N25" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="14">
         <v>1</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="14">
         <v>1</v>
       </c>
       <c r="Q25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="R25" s="15" t="s">
+      <c r="R25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="S25" s="14" t="s">
@@ -1859,39 +1848,59 @@
       <c r="W25" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="X25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG25" s="17" t="s">
+      <c r="X25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG25" s="11" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="AC21:AF21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="Q21:T21"/>
+    <mergeCell ref="U21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="AC20:AF20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="U20:X20"/>
+    <mergeCell ref="Q20:T20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AC6:AF6"/>
@@ -1908,29 +1917,8 @@
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="Q6:T6"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Software/Regiser Descriptions/Register Descriptions.xlsx
+++ b/Software/Regiser Descriptions/Register Descriptions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="34">
   <si>
     <t>IP</t>
   </si>
@@ -90,9 +90,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>G1/G0 Read Mask</t>
   </si>
   <si>
@@ -108,20 +105,29 @@
     <t>X</t>
   </si>
   <si>
-    <t>Wire Speed Home Switch</t>
-  </si>
-  <si>
     <t>DIO[0] Register Description</t>
   </si>
   <si>
     <t>Weld and CNC stop</t>
+  </si>
+  <si>
+    <t>Wire Speed Home Switch Active</t>
+  </si>
+  <si>
+    <t>G1 INPUT ACTIVE</t>
+  </si>
+  <si>
+    <t>G0 INPUT ACTIVE</t>
+  </si>
+  <si>
+    <t>CNC Start</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,16 +158,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -232,35 +262,41 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -269,13 +305,121 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -299,8 +443,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -313,20 +459,41 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="24" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="24" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="23" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="23" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="23" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="25">
+    <cellStyle name="Bad" xfId="24" builtinId="27"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -338,6 +505,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -678,15 +846,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH25"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="AG35" sqref="AG35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="32" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -799,10 +969,10 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="9"/>
       <c r="E4">
         <v>0</v>
       </c>
@@ -824,41 +994,41 @@
       <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
       <c r="O4" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="P4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13" t="s">
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13" t="s">
+      <c r="W4" s="9"/>
+      <c r="X4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13" t="s">
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13" t="s">
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="9"/>
     </row>
     <row r="5" spans="1:34">
       <c r="A5" s="2">
@@ -965,54 +1135,54 @@
       </c>
     </row>
     <row r="6" spans="1:34">
-      <c r="A6" s="12">
-        <v>0</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12">
+      <c r="A6" s="8">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8">
         <v>6</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12">
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8">
         <v>8</v>
       </c>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12">
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8">
         <v>2</v>
       </c>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12">
-        <v>0</v>
-      </c>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
-      <c r="X6" s="12"/>
-      <c r="Y6" s="12">
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8">
+        <v>0</v>
+      </c>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8">
         <v>2</v>
       </c>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="8"/>
       <c r="AG6" t="s">
         <v>13</v>
       </c>
@@ -1123,68 +1293,68 @@
       </c>
     </row>
     <row r="9" spans="1:34">
-      <c r="A9" s="12">
-        <v>0</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12">
-        <v>0</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12">
-        <v>0</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12">
-        <v>0</v>
-      </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12">
+      <c r="A9" s="8">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8">
         <v>8</v>
       </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12">
-        <v>0</v>
-      </c>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12" t="s">
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8">
+        <v>0</v>
+      </c>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AD9" s="12"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="8"/>
       <c r="AG9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:34">
-      <c r="A15" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="17" spans="1:33">
       <c r="A17" s="6">
@@ -1388,7 +1558,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" ht="16" thickBot="1">
       <c r="A19" s="7" t="s">
         <v>22</v>
       </c>
@@ -1413,494 +1583,777 @@
       <c r="H19" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="7">
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="I19" s="10">
+        <v>1</v>
+      </c>
+      <c r="J19" s="10">
         <v>3</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="10">
         <v>5</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="10">
         <v>7</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="10">
         <v>9</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="10">
         <v>11</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="10">
         <v>13</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="10">
         <v>15</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="10">
         <v>17</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="10">
         <v>19</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="10">
         <v>21</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="10">
         <v>23</v>
       </c>
-      <c r="U19" s="7">
+      <c r="U19" s="10">
         <v>25</v>
       </c>
-      <c r="V19" s="7">
-        <v>27</v>
-      </c>
-      <c r="W19" s="7">
+      <c r="V19" s="10">
+        <v>27</v>
+      </c>
+      <c r="W19" s="10">
         <v>29</v>
       </c>
-      <c r="X19" s="7">
+      <c r="X19" s="10">
         <v>31</v>
       </c>
-      <c r="Y19" s="7">
+      <c r="Y19" s="10">
         <v>33</v>
       </c>
-      <c r="Z19" s="7">
+      <c r="Z19" s="10">
         <v>35</v>
       </c>
-      <c r="AA19" s="7">
+      <c r="AA19" s="10">
         <v>37</v>
       </c>
-      <c r="AB19" s="7">
+      <c r="AB19" s="10">
         <v>39</v>
       </c>
-      <c r="AC19" s="7">
+      <c r="AC19" s="10">
         <v>41</v>
       </c>
-      <c r="AD19" s="7">
+      <c r="AD19" s="10">
         <v>43</v>
       </c>
-      <c r="AE19" s="7">
+      <c r="AE19" s="10">
         <v>45</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AF19" s="10">
         <v>47</v>
       </c>
       <c r="AG19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
-      <c r="I20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12" t="s">
+    <row r="20" spans="1:33" ht="16" thickBot="1">
+      <c r="I20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="30">
+        <v>1</v>
+      </c>
+      <c r="N20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC20" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE20" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF20" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG20" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="12"/>
-      <c r="AA20" s="12"/>
-      <c r="AB20" s="12"/>
-      <c r="AC20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="12"/>
-      <c r="AF20" s="12"/>
-      <c r="AG20" t="s">
+    </row>
+    <row r="21" spans="1:33" ht="16" thickBot="1">
+      <c r="I21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="31">
+        <v>1</v>
+      </c>
+      <c r="P21" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF21" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
-      <c r="I21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12">
-        <v>3</v>
-      </c>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="12"/>
-      <c r="AB21" s="12"/>
-      <c r="AC21" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD21" s="12"/>
-      <c r="AE21" s="12"/>
-      <c r="AF21" s="12"/>
-      <c r="AG21" t="s">
+    <row r="22" spans="1:33" ht="16" thickBot="1">
+      <c r="I22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="33">
+        <v>0</v>
+      </c>
+      <c r="N22" s="34">
+        <v>1</v>
+      </c>
+      <c r="O22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="X22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF22" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="16" thickBot="1">
+      <c r="I23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="M23" s="33">
+        <v>1</v>
+      </c>
+      <c r="N23" s="34">
+        <v>0</v>
+      </c>
+      <c r="O23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="V23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF23" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" ht="16" thickBot="1">
+      <c r="I24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="31">
+        <v>1</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF24" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" ht="16" thickBot="1">
+      <c r="I25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="31">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE25" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF25" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
-      <c r="I22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="9">
-        <v>1</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="X22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC22" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>27</v>
+    <row r="26" spans="1:33" ht="16" thickBot="1">
+      <c r="I26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="31">
+        <v>0</v>
+      </c>
+      <c r="L26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC26" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF26" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
-      <c r="I23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="9">
-        <v>0</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="X23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC23" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE23" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF23" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>26</v>
+    <row r="27" spans="1:33" ht="16" thickBot="1">
+      <c r="I27" s="33">
+        <v>1</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O27" s="31">
+        <v>1</v>
+      </c>
+      <c r="P27" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U27" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="W27" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="X27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE27" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF27" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG27" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
-      <c r="I24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="9">
-        <v>0</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="O24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="S24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="T24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="U24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="V24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="X24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE24" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33">
-      <c r="I25" s="7">
-        <v>1</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="O25" s="14">
-        <v>1</v>
-      </c>
-      <c r="P25" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="R25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="S25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="T25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="U25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="W25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF25" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="AG25" s="11" t="s">
-        <v>31</v>
+    <row r="28" spans="1:33" ht="16" thickBot="1">
+      <c r="I28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M28" s="33">
+        <v>1</v>
+      </c>
+      <c r="N28" s="34">
+        <v>0</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="S28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="V28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="W28" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="X28" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC28" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF28" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="AC21:AF21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:P21"/>
-    <mergeCell ref="Q21:T21"/>
-    <mergeCell ref="U21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="AC20:AF20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="U20:X20"/>
-    <mergeCell ref="Q20:T20"/>
-    <mergeCell ref="M20:P20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AB4"/>
+  <mergeCells count="24">
     <mergeCell ref="U6:X6"/>
     <mergeCell ref="Y6:AB6"/>
     <mergeCell ref="AC6:AF6"/>
@@ -1917,6 +2370,14 @@
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="M6:P6"/>
     <mergeCell ref="Q6:T6"/>
+    <mergeCell ref="AC4:AF4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="A15:G15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
